--- a/PPA2 Script Flows.xlsx
+++ b/PPA2 Script Flows.xlsx
@@ -1,26 +1,178 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E910F3AE-DC1E-4799-B33F-F00D3D798D92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NPMRDS" sheetId="1" r:id="rId1"/>
+    <sheet name="Sugar" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+  <si>
+    <t>Level of Travel Time Reliability (worst of 4 periods, show which period it is)</t>
+  </si>
+  <si>
+    <t>Ideal- Person-hours of excessive delay (PHED)</t>
+  </si>
+  <si>
+    <t>Possible: Pm3 based truck travel reliability</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darren to make call on if 'avg hrs in congested conditions' or 'peak period congestion index'. </t>
+  </si>
+  <si>
+    <t>Worst' of the 4 periods. 80th / 50th pctle TT for consistency with PM3:
+Weekdays 6am-10am
+Weekdays 10am-4pm
+Weekdays 4pm-8pm
+Weekends 6am-8pm</t>
+  </si>
+  <si>
+    <t>Would be ideal, but not required. IF too hard to do, we will scrap. FIRST get tool working without it.
+Potentially feasible for freeways since they're all NHS, but be wary of/compare traffic count data--Kyle could help with this (need hourly count data)</t>
+  </si>
+  <si>
+    <t>Not the highest priority, but if possible, could add</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Write query to get all NPMRDS metrics at TMC level</t>
+  </si>
+  <si>
+    <t>Conflation method</t>
+  </si>
+  <si>
+    <t>Avg weekday hours of congested conditions (hours each weekday during which congestion is 'bad', or &lt;60% of free-flow speed</t>
+  </si>
+  <si>
+    <t>SQL Result columns</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>TMC</t>
+  </si>
+  <si>
+    <t>&lt;road attributes from TMC identification CSV&gt;</t>
+  </si>
+  <si>
+    <t>Auto LOTTR weekdays 6am-10am</t>
+  </si>
+  <si>
+    <t>Auto LOTTR  Weekdays 10am-4pm</t>
+  </si>
+  <si>
+    <t>Auto LOTTR  Weekdays 4pm-8pm</t>
+  </si>
+  <si>
+    <t>Auto LOTTR  Weekends 6am-8pm</t>
+  </si>
+  <si>
+    <t>Desc and Notes</t>
+  </si>
+  <si>
+    <t>Where truck data missing, fill in with all-vehicle TT, use 95/50</t>
+  </si>
+  <si>
+    <t>Use passenger vehicle reliability, 80/50</t>
+  </si>
+  <si>
+    <t>create "filled in" version of truck table, substituting null truck values with all-vehicle TT values (confirmed that all-vehicle TT is *not* same as paxveh speed even when no truck speeds available).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hours per typical weekday during which conditions are congested </t>
+  </si>
+  <si>
+    <t>All vehicles, weekdays only</t>
+  </si>
+  <si>
+    <t>free-flow speed (all vehs)</t>
+  </si>
+  <si>
+    <t>Start out with all-vehicle, may want to switch to passenger veh only</t>
+  </si>
+  <si>
+    <t>Step/Task</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Create master NPMRDS feature class with metrics tagged to each TMC and fitted as best as possible to true shapes, esp for priority projects</t>
+  </si>
+  <si>
+    <t>Distance-weighted average</t>
+  </si>
+  <si>
+    <t>Sum, weighting by distance</t>
+  </si>
+  <si>
+    <t>Avg congestion ratio for worst 4 hours of the day</t>
+  </si>
+  <si>
+    <t>Alt that could weight more intuitively</t>
+  </si>
+  <si>
+    <t>Average congestion ratio (observed/free-flow) for worst 4 hours of the day, based on weekdays</t>
+  </si>
+  <si>
+    <t>Worst auto LOTTR</t>
+  </si>
+  <si>
+    <t>Worst truck TTTR</t>
+  </si>
+  <si>
+    <t>Truck TTTR weekdays 6am-10am</t>
+  </si>
+  <si>
+    <t>Truck TTTR  Weekdays 10am-4pm</t>
+  </si>
+  <si>
+    <t>Truck TTTR  Weekdays 4pm-8pm</t>
+  </si>
+  <si>
+    <t>Truck TTTR  Weekends 6am-8pm</t>
+  </si>
+  <si>
+    <t>Period of worst auto LOTTR</t>
+  </si>
+  <si>
+    <t>Period of worst truck TTTR</t>
+  </si>
+  <si>
+    <t>Distance-weighted average of worst LOTTR</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +180,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +211,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,10 +533,241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="56.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0457C7D-C757-4D95-A5B4-14359CB033F2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/PPA2 Script Flows.xlsx
+++ b/PPA2 Script Flows.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E910F3AE-DC1E-4799-B33F-F00D3D798D92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AC7BFB-27EE-4A0C-B091-D611511A9436}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPMRDS" sheetId="1" r:id="rId1"/>
-    <sheet name="Sugar" sheetId="2" r:id="rId2"/>
+    <sheet name="PPA1 Structure" sheetId="3" r:id="rId2"/>
+    <sheet name="Sugar" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -269,6 +270,224 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44800D5-B245-4E7A-9A21-0A69B0322C83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="2647950"/>
+          <a:ext cx="1952625" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>masterprojectsevaluator.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08CA0D93-181B-4028-B2A6-4E7D1CC9E37E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="457200"/>
+          <a:ext cx="1952625" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>User input:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-line</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> feature set</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>-speed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>-project ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>-etc.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118CAA84-389B-463D-AB3E-89AAE8C5FA3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="1524000"/>
+          <a:ext cx="1952625" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,7 +755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -764,6 +983,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4C751F-AD00-4886-8311-CF1D2FD857A1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0457C7D-C757-4D95-A5B4-14359CB033F2}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/PPA2 Script Flows.xlsx
+++ b/PPA2 Script Flows.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AC7BFB-27EE-4A0C-B091-D611511A9436}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9024483-CD3F-4559-B66A-8586D5A09181}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPMRDS" sheetId="1" r:id="rId1"/>
     <sheet name="PPA1 Structure" sheetId="3" r:id="rId2"/>
-    <sheet name="Sugar" sheetId="2" r:id="rId3"/>
+    <sheet name="Outputs vs Functions" sheetId="4" r:id="rId3"/>
+    <sheet name="Function List - Arterial" sheetId="5" r:id="rId4"/>
+    <sheet name="Sugar" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="173">
   <si>
     <t>Level of Travel Time Reliability (worst of 4 periods, show which period it is)</t>
   </si>
@@ -167,6 +169,390 @@
   </si>
   <si>
     <t>Distance-weighted average of worst LOTTR</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Tie outputs to function types, determine which functions can be used for multiple outputs</t>
+  </si>
+  <si>
+    <t>Adjust parameters to functions as needed to make them as versatile as possible to have fewer total functions</t>
+  </si>
+  <si>
+    <t>Consider whether there are logical 'groups' of functions that better fit within a class rather than as separate functions</t>
+  </si>
+  <si>
+    <t>Consider if there are groups of functions that should be their own module</t>
+  </si>
+  <si>
+    <t>Division options</t>
+  </si>
+  <si>
+    <t>By report</t>
+  </si>
+  <si>
+    <t>By performance outcome</t>
+  </si>
+  <si>
+    <t>By operation (e.g., point summation, NPMRDS conflation, collisions, etc.)</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Project Description</t>
+  </si>
+  <si>
+    <t>Project Community Type</t>
+  </si>
+  <si>
+    <t>average daily traffic on project segment</t>
+  </si>
+  <si>
+    <t>Speed limit on project segment (MPH)</t>
+  </si>
+  <si>
+    <t>base year dwelling units within project buffer</t>
+  </si>
+  <si>
+    <t>future year dwelling units within project buffer</t>
+  </si>
+  <si>
+    <t>base year jobs within project buffer</t>
+  </si>
+  <si>
+    <t>future year jobs within project buffer</t>
+  </si>
+  <si>
+    <t>land use diversity score within project buffer (1mi), base year</t>
+  </si>
+  <si>
+    <t>land use diversity score within project community type, base year</t>
+  </si>
+  <si>
+    <t>land use diversity score for entire region, base year</t>
+  </si>
+  <si>
+    <t>land use diversity score within project buffer (1mi), future year</t>
+  </si>
+  <si>
+    <t>land use diversity score within project community type, future year</t>
+  </si>
+  <si>
+    <t>land use diversity score for entire region, future year</t>
+  </si>
+  <si>
+    <t>free-flow speed on project segment</t>
+  </si>
+  <si>
+    <t>congested speed on project segment during slowest 4 hours of the day</t>
+  </si>
+  <si>
+    <t>divide proj_cong_ratio / proj_ff_speed</t>
+  </si>
+  <si>
+    <t>travel time reliability score, weekdays 6am-10am</t>
+  </si>
+  <si>
+    <t>travel time reliability score, weekdays 10am-4pm</t>
+  </si>
+  <si>
+    <t>travel time reliability score, weekdays 4pm-8pm</t>
+  </si>
+  <si>
+    <t>travel time reliability score, weekends 6am-8pm</t>
+  </si>
+  <si>
+    <t>Street connectivity (total 3- and 4-way intersections per acre) within 0.25mi project buffer</t>
+  </si>
+  <si>
+    <t>Street connectivity (total 3- and 4-way intersections per acre) within project community type</t>
+  </si>
+  <si>
+    <t>Street connectivity (total 3- and 4-way intersections per acre) within region</t>
+  </si>
+  <si>
+    <t>Percent of total network centerline miles within 0.25mi of project that are either off-street bike paths or streets with bike lanes</t>
+  </si>
+  <si>
+    <t>Transit vehicle stops per acre per weekday within 0.25mi of project</t>
+  </si>
+  <si>
+    <t>total jobs accessible within 30min drive from project</t>
+  </si>
+  <si>
+    <t>total jobs accessible within 30min walk from project</t>
+  </si>
+  <si>
+    <t>total jobs accessible within 30min bike ride from project</t>
+  </si>
+  <si>
+    <t>total jobs accessible within 45min transit trip from project</t>
+  </si>
+  <si>
+    <t>total jobs accessible within 30min drive, community type average</t>
+  </si>
+  <si>
+    <t>total jobs accessible within 30min walk, community type average</t>
+  </si>
+  <si>
+    <t>total jobs accessible within 30min bike ride, community type average</t>
+  </si>
+  <si>
+    <t>total jobs accessible within 45min transit trip, community type average</t>
+  </si>
+  <si>
+    <t>total jobs accessible within 30min drive, regional average</t>
+  </si>
+  <si>
+    <t>total jobs accessible within 30min walk, regional average</t>
+  </si>
+  <si>
+    <t>total jobs accessible within 30min bike ride, regional average</t>
+  </si>
+  <si>
+    <t>total jobs accessible within 45min transit trip, regional average</t>
+  </si>
+  <si>
+    <t>Total new jobs added within 0.5mi of project area by 2040</t>
+  </si>
+  <si>
+    <t>total services accessible within 15min drive from project</t>
+  </si>
+  <si>
+    <t>total services accessible within 30min walk from project</t>
+  </si>
+  <si>
+    <t>total services accessible within 30min bike ride from project</t>
+  </si>
+  <si>
+    <t>total services accessible within 45min transit trip from project</t>
+  </si>
+  <si>
+    <t>total services accessible within 15min drive, community type average</t>
+  </si>
+  <si>
+    <t>total services accessible within 30min walk, community type average</t>
+  </si>
+  <si>
+    <t>total services accessible within 30min bike ride, community type average</t>
+  </si>
+  <si>
+    <t>total services accessible within 45min transit trip, community type average</t>
+  </si>
+  <si>
+    <t>total services accessible within 15min drive, regional average</t>
+  </si>
+  <si>
+    <t>total services accessible within 30min walk, regional average</t>
+  </si>
+  <si>
+    <t>total services accessible within 30min bike ride, regional average</t>
+  </si>
+  <si>
+    <t>total services accessible within 45min transit trip, regional average</t>
+  </si>
+  <si>
+    <t>K-12 Enrollment within 0.5mi of project location</t>
+  </si>
+  <si>
+    <t>education facilities within 30min drive from project</t>
+  </si>
+  <si>
+    <t>education facilities within 30min walk from project</t>
+  </si>
+  <si>
+    <t>education facilities within 30min bike ride from project</t>
+  </si>
+  <si>
+    <t>education facilities within 45min transit trip from project</t>
+  </si>
+  <si>
+    <t>education facilities within 30min drive, community type average</t>
+  </si>
+  <si>
+    <t>education facilities within 30min walk, community type average</t>
+  </si>
+  <si>
+    <t>education facilities within 30min bike ride, community type average</t>
+  </si>
+  <si>
+    <t>education facilities within 45min transit trip, community type average</t>
+  </si>
+  <si>
+    <t>education facilities within 30min drive, regional average</t>
+  </si>
+  <si>
+    <t>education facilities within 30min walk, regional average</t>
+  </si>
+  <si>
+    <t>education facilities within 30min bike ride, regional average</t>
+  </si>
+  <si>
+    <t>education facilities within 45min transit trip, regional average</t>
+  </si>
+  <si>
+    <t>share of acres within 0.5mi of project that are agriculture, base year</t>
+  </si>
+  <si>
+    <t>share of acres within 0.5mi of project that are agriculture, future year</t>
+  </si>
+  <si>
+    <t>Percent of project that is on federally-recognized STAA truck route</t>
+  </si>
+  <si>
+    <t>Percent of jobs within 0.5mi of project that are industrial sector</t>
+  </si>
+  <si>
+    <t>Percent of jobs within project community type that are industrial sector</t>
+  </si>
+  <si>
+    <t>Percent of jobs within region that are industrial sector</t>
+  </si>
+  <si>
+    <t>Base-year industrial jobs within 0.5mi of project</t>
+  </si>
+  <si>
+    <t>Future-year industrial jobs within 0.5mi of project</t>
+  </si>
+  <si>
+    <t>Total collisions (2014-2018)</t>
+  </si>
+  <si>
+    <t>Collisions per million vehicle-miles traveled (VMT) on project segment</t>
+  </si>
+  <si>
+    <t>Collisions per million vehicle-miles traveled (VMT) within project community type</t>
+  </si>
+  <si>
+    <t>Collisions per million vehicle-miles traveled (VMT) within region</t>
+  </si>
+  <si>
+    <t>Percent of collisions on project segment involving bicycle or pedestrian</t>
+  </si>
+  <si>
+    <t>Percent of collisions within community type involving bicycle or pedestrian</t>
+  </si>
+  <si>
+    <t>Percent of collisions in region involving bicycle or pedestrian</t>
+  </si>
+  <si>
+    <t>Percent of collisions on project segment with 1 or more fatalities</t>
+  </si>
+  <si>
+    <t>Percent of collisions within community type with 1 or more fatalities</t>
+  </si>
+  <si>
+    <t>Percent of collisions in region with 1 or more fatalities</t>
+  </si>
+  <si>
+    <t>pavement condition index (0-100)</t>
+  </si>
+  <si>
+    <t>total EJ population within 0.5mi of project</t>
+  </si>
+  <si>
+    <t>Percent of population within 0.5mi of project that is within EJ area</t>
+  </si>
+  <si>
+    <t>Percent of population in project community type that is within EJ area</t>
+  </si>
+  <si>
+    <t>Percent of population in region that is within EJ area</t>
+  </si>
+  <si>
+    <t>total jobs accessible to environmental justice populations within 30min drive of project segment</t>
+  </si>
+  <si>
+    <t>total jobs accessible to environmental justice populations within 30min walk of project segment</t>
+  </si>
+  <si>
+    <t>total jobs accessible to environmental justice populations within 30min bike ride of project segment</t>
+  </si>
+  <si>
+    <t>total jobs accessible to environmental justice populations within 45min transit trip of project segment</t>
+  </si>
+  <si>
+    <t>entry-level jobs accessible to environmental justice populations within 30min drive of project segment</t>
+  </si>
+  <si>
+    <t>entry-level jobs accessible to environmental justice populations within 30min walk of project segment</t>
+  </si>
+  <si>
+    <t>entry-level jobs accessible to environmental justice populations within 30min bike ride of project segment</t>
+  </si>
+  <si>
+    <t>entry-level jobs accessible to environmental justice populations within 45min transit trip of project segment</t>
+  </si>
+  <si>
+    <t>education facilities accessible to environmental justice populations within 30min drive of project segment</t>
+  </si>
+  <si>
+    <t>education facilities accessible to environmental justice populations within 30min walk of project segment</t>
+  </si>
+  <si>
+    <t>education facilities accessible to environmental justice populations within 30min bike ride of project segment</t>
+  </si>
+  <si>
+    <t>education facilities accessible to environmental justice populations within 45min transit trip of project segment</t>
+  </si>
+  <si>
+    <t>services accessible to environmental justice populations within 30min drive of project segment</t>
+  </si>
+  <si>
+    <t>services accessible to environmental justice populations within 30min walk of project segment</t>
+  </si>
+  <si>
+    <t>services accessible to environmental justice populations within 30min bike ride of project segment</t>
+  </si>
+  <si>
+    <t>services accessible to environmental justice populations within 45min transit trip of project segment</t>
+  </si>
+  <si>
+    <t>Metric calculated</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>sum parcel column based on parcel distance</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Function description</t>
+  </si>
+  <si>
+    <t>PPA1 reference</t>
+  </si>
+  <si>
+    <t>ppautils.pointSum</t>
+  </si>
+  <si>
+    <t>base, future</t>
+  </si>
+  <si>
+    <t>parcel layer, year, column, buffer distance</t>
+  </si>
+  <si>
+    <t>calculate LU mix diversity</t>
+  </si>
+  <si>
+    <t>buffer distance; call sum-parcel function for each input; year</t>
+  </si>
+  <si>
+    <t>NPMRDS calc</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4C751F-AD00-4886-8311-CF1D2FD857A1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -998,6 +1384,911 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA90A9B8-1A06-468C-BC39-2501178655E5}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DC41B1-2DEC-4DF8-91AF-8A6D7AFB0341}">
+  <dimension ref="A1:E114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="117" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0457C7D-C757-4D95-A5B4-14359CB033F2}">
   <dimension ref="A1"/>
   <sheetViews>
